--- a/src/main/java/com/testdata/EmpireHome.xlsx
+++ b/src/main/java/com/testdata/EmpireHome.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BA654CA2-3A46-4AF8-AB53-012B2FD0B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{45FC791C-8906-4791-BAEC-D6297A9EFBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{23308599-DD6F-4269-8693-0CB3BDD38A66}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{23308599-DD6F-4269-8693-0CB3BDD38A66}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -33,13 +34,46 @@
   </si>
   <si>
     <t>ZPMHQHIA</t>
+  </si>
+  <si>
+    <t>modelnumber</t>
+  </si>
+  <si>
+    <t>itemtitle</t>
+  </si>
+  <si>
+    <t>ItemDescription</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>breadth</t>
+  </si>
+  <si>
+    <t>colorname</t>
+  </si>
+  <si>
+    <t>actualprice</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>white</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +86,21 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF374767"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,16 +120,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF78108F-1E7A-493C-829C-86B80FE0E4D2}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -440,4 +500,80 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4911B0F0-C8F6-4786-AA10-4EB2EE1DE869}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1234567890</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="2">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2">
+        <v>4000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="sureshbabuemp@gmail.com" xr:uid="{33CBC1B3-9899-4606-9A11-D581F2A0B4B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>